--- a/cleanFiles/AMSA1.xlsx
+++ b/cleanFiles/AMSA1.xlsx
@@ -8,19 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="20" sheetId="1" r:id="rId1"/>
-    <sheet name="Phase_75" sheetId="2" r:id="rId2"/>
-    <sheet name="Phase_1000" sheetId="3" r:id="rId3"/>
-    <sheet name="Phase_3000" sheetId="4" r:id="rId4"/>
-    <sheet name="Phase_10000" sheetId="5" r:id="rId5"/>
-    <sheet name="35" sheetId="6" r:id="rId6"/>
-    <sheet name="80" sheetId="7" r:id="rId7"/>
-    <sheet name="300" sheetId="8" r:id="rId8"/>
-    <sheet name="900" sheetId="9" r:id="rId9"/>
-    <sheet name="1000" sheetId="10" r:id="rId10"/>
-    <sheet name="1100" sheetId="11" r:id="rId11"/>
-    <sheet name="3000" sheetId="12" r:id="rId12"/>
-    <sheet name="8000" sheetId="13" r:id="rId13"/>
-    <sheet name="10000" sheetId="14" r:id="rId14"/>
+    <sheet name="35" sheetId="2" r:id="rId2"/>
+    <sheet name="80" sheetId="3" r:id="rId3"/>
+    <sheet name="300" sheetId="4" r:id="rId4"/>
+    <sheet name="900" sheetId="5" r:id="rId5"/>
+    <sheet name="1000" sheetId="6" r:id="rId6"/>
+    <sheet name="1100" sheetId="7" r:id="rId7"/>
+    <sheet name="3000" sheetId="8" r:id="rId8"/>
+    <sheet name="8000" sheetId="9" r:id="rId9"/>
+    <sheet name="10000" sheetId="10" r:id="rId10"/>
+    <sheet name="Phase_75" sheetId="11" r:id="rId11"/>
+    <sheet name="Phase_1000" sheetId="12" r:id="rId12"/>
+    <sheet name="Phase_3000" sheetId="13" r:id="rId13"/>
+    <sheet name="Phase_10000" sheetId="14" r:id="rId14"/>
     <sheet name="THD_94dBSPL" sheetId="15" r:id="rId15"/>
     <sheet name="THD_100dBSPL" sheetId="16" r:id="rId16"/>
     <sheet name="THD_106dBSPL" sheetId="17" r:id="rId17"/>
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-39.07525</v>
+        <v>-39.17629</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-39.05639</v>
+        <v>-39.15371</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-39.18289</v>
+        <v>-39.135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-39.11803</v>
+        <v>-39.14265</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-39.05794</v>
+        <v>-39.14024</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-39.11917</v>
+        <v>-39.15226</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-39.12294</v>
+        <v>-39.17896</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-39.14212</v>
+        <v>-39.18946</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-38.93226</v>
+        <v>-39.16201</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-39.08399</v>
+        <v>-39.18194</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-39.08349</v>
+        <v>-39.05622</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -511,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-39.1069</v>
+        <v>-39.14344</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -519,7 +519,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-39.10852</v>
+        <v>-39.16466</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -527,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-39.12764</v>
+        <v>-39.14099</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -535,7 +535,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-39.06159</v>
+        <v>-39.18572</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -543,7 +543,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-39.02791</v>
+        <v>-39.12902</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -551,7 +551,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-39.06041</v>
+        <v>-39.18683</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -559,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-39.12256</v>
+        <v>-39.16008</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -567,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-39.07846</v>
+        <v>-39.13962</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -575,7 +575,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-39.21062</v>
+        <v>-39.19884</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-39.01844</v>
+        <v>-39.18075</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -591,7 +591,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-39.02937</v>
+        <v>-39.17238</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -599,7 +599,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-39.07389</v>
+        <v>-39.15364</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -607,7 +607,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-39.04818</v>
+        <v>-39.13911</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -615,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-39.04158</v>
+        <v>-39.15407</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -623,7 +623,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-39.07449</v>
+        <v>-39.09073</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -631,7 +631,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-39.08924</v>
+        <v>-39.09233</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -639,7 +639,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-39.0786</v>
+        <v>-39.1875</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -647,7 +647,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-39.04433</v>
+        <v>-39.14551</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -655,7 +655,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-39.05951</v>
+        <v>-39.22173</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -663,7 +663,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-39.04906</v>
+        <v>-39.1861</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -671,7 +671,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-39.06207999999999</v>
+        <v>-39.16227</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -679,7 +679,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-39.09305999999999</v>
+        <v>-39.17119</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -687,7 +687,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-38.9916</v>
+        <v>-39.03688</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -695,7 +695,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-39.36715</v>
+        <v>-39.11329</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-37.79535</v>
+        <v>-36.98727</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-37.74706</v>
+        <v>-36.91342</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-37.88291</v>
+        <v>-36.88153</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-37.82943</v>
+        <v>-36.8605</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-37.77302</v>
+        <v>-36.86812</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -764,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-37.80122</v>
+        <v>-36.88742</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-37.79813</v>
+        <v>-36.88502</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-37.8524</v>
+        <v>-36.90539</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-37.66233</v>
+        <v>-36.89047</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -796,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-37.7843</v>
+        <v>-36.92105</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-37.77456</v>
+        <v>-36.84552</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -812,7 +812,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-37.80244</v>
+        <v>-36.88781</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-37.82762</v>
+        <v>-36.91978</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -828,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-37.83499</v>
+        <v>-36.8704</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -836,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-37.76685</v>
+        <v>-36.90246</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -844,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-37.71895</v>
+        <v>-36.87904</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -852,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-37.75277</v>
+        <v>-36.91896</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -860,7 +860,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-37.83267</v>
+        <v>-36.95266</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -868,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-37.78547</v>
+        <v>-36.8532</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -876,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-37.88668</v>
+        <v>-36.91912</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -884,7 +884,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-37.71124</v>
+        <v>-36.90249</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -892,7 +892,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-37.72346</v>
+        <v>-36.97194</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-37.78353</v>
+        <v>-36.88307</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -908,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-37.75397</v>
+        <v>-36.88035</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -916,7 +916,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-37.72671</v>
+        <v>-36.87885</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -924,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-37.76713</v>
+        <v>-36.81303</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -932,7 +932,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-37.79386</v>
+        <v>-36.83195</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -940,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-37.78619999999999</v>
+        <v>-36.91428</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -948,7 +948,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-37.76147</v>
+        <v>-36.86809</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -956,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-37.75654</v>
+        <v>-36.99035</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -964,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-37.73906</v>
+        <v>-36.93567</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -972,7 +972,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-37.77139</v>
+        <v>-36.93172</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -980,7 +980,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-37.79697</v>
+        <v>-36.9278</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -988,7 +988,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-37.71171</v>
+        <v>-36.72267</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -996,7 +996,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-38.02736</v>
+        <v>-36.83896</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-37.80209</v>
+        <v>6.785985999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-37.75148</v>
+        <v>6.761042999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-37.89178</v>
+        <v>6.753594</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-37.83485</v>
+        <v>6.758083999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-37.77595</v>
+        <v>6.717851</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-37.80861</v>
+        <v>6.854924</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-37.80396</v>
+        <v>6.851358</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-37.85803</v>
+        <v>6.828127</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-37.66246</v>
+        <v>6.760787000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-37.78691</v>
+        <v>6.713841</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-37.78058</v>
+        <v>6.837075</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-37.8052</v>
+        <v>6.849812</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-37.83130999999999</v>
+        <v>6.767776</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1129,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-37.83891</v>
+        <v>6.817075</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1137,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-37.77073</v>
+        <v>6.87786</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1145,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-37.71942</v>
+        <v>6.823396</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-37.75489</v>
+        <v>6.773353</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-37.83483</v>
+        <v>6.775985</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-37.78787</v>
+        <v>6.745570000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1177,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-37.89251</v>
+        <v>6.860933</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1185,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-37.71801</v>
+        <v>6.743761000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1193,7 +1193,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-37.72058</v>
+        <v>6.794039</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1201,7 +1201,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-37.78414</v>
+        <v>6.757984</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1209,7 +1209,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-37.75605</v>
+        <v>7.058603</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1217,7 +1217,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-37.72774</v>
+        <v>6.757954</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-37.77142</v>
+        <v>6.764024999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1233,7 +1233,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-37.79782</v>
+        <v>6.808757</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1241,7 +1241,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-37.79033</v>
+        <v>6.791598</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1249,7 +1249,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-37.76228</v>
+        <v>6.695086999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1257,7 +1257,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-37.76041</v>
+        <v>6.75371</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1265,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-37.74181</v>
+        <v>6.778292</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1273,7 +1273,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-37.77725</v>
+        <v>6.763811</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1281,7 +1281,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-37.8005</v>
+        <v>6.781107</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1289,7 +1289,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-37.70702</v>
+        <v>6.647826999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1297,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-38.04433</v>
+        <v>6.734153000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-37.75968</v>
+        <v>1.305284</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-37.70829</v>
+        <v>1.334985</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-37.84739</v>
+        <v>1.287235</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-37.78869</v>
+        <v>1.289162</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-37.731</v>
+        <v>1.31441</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-37.73818</v>
+        <v>1.310635</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-37.76626</v>
+        <v>1.280907</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-37.81648</v>
+        <v>1.319655</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-37.62663</v>
+        <v>1.254956</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-37.74711</v>
+        <v>1.269086</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-37.73878</v>
+        <v>1.314881</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-37.77169</v>
+        <v>1.260801</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-37.79659</v>
+        <v>1.268767</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-37.80082</v>
+        <v>1.327182</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-37.72727</v>
+        <v>1.284458</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-37.68833</v>
+        <v>1.324498</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-37.71735</v>
+        <v>1.329949</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-37.79773</v>
+        <v>1.2104</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-37.75163</v>
+        <v>1.261072</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-37.85269</v>
+        <v>1.254093</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-37.6795</v>
+        <v>1.266859</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-37.68163</v>
+        <v>1.426316</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-37.749</v>
+        <v>1.336432</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-37.72373</v>
+        <v>1.310222</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-37.69954</v>
+        <v>1.244101</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-37.73373</v>
+        <v>1.369416</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-37.76156</v>
+        <v>1.344979</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-37.75464</v>
+        <v>1.354377</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-37.73197</v>
+        <v>1.288109</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-37.73126</v>
+        <v>1.310782</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-37.70271</v>
+        <v>1.359194</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-37.74138000000001</v>
+        <v>1.344779</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-37.7671</v>
+        <v>1.317818</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-37.67684</v>
+        <v>1.334738</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-38.0067</v>
+        <v>1.308165</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-37.10833</v>
+        <v>3.515386</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-37.01218</v>
+        <v>3.418208</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-37.19578</v>
+        <v>2.961192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-37.12917</v>
+        <v>3.386771</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-37.06161</v>
+        <v>3.353376</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-36.6226</v>
+        <v>3.151796</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-37.15267</v>
+        <v>3.439064</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-37.21748</v>
+        <v>3.292988</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-37.24066000000001</v>
+        <v>3.36393</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-37.06933</v>
+        <v>3.102364</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-37.04991</v>
+        <v>3.412527</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-37.14925</v>
+        <v>3.382111</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-37.14408</v>
+        <v>3.585040999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-37.1824</v>
+        <v>3.064749</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1739,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-37.05322</v>
+        <v>3.272117</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-37.12061</v>
+        <v>3.233042</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-37.07077</v>
+        <v>3.203222</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-37.14104</v>
+        <v>3.383519</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-37.07669</v>
+        <v>3.301035</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-37.26887</v>
+        <v>3.263506</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-37.02908</v>
+        <v>3.317825</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-37.01446</v>
+        <v>3.024007</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-37.08173</v>
+        <v>3.436978</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-37.02853</v>
+        <v>3.23508</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-37.01086</v>
+        <v>3.303841</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1827,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-37.06348</v>
+        <v>3.092397</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-37.10593</v>
+        <v>3.218871</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1843,7 +1843,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-37.10311</v>
+        <v>3.138023</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1851,7 +1851,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-37.08892</v>
+        <v>3.096168</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-37.0711</v>
+        <v>3.251569</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-37.05128</v>
+        <v>3.38236</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-37.09396</v>
+        <v>3.392103</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-37.07919</v>
+        <v>3.245422</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-37.02865</v>
+        <v>3.242701</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-37.46563</v>
+        <v>3.058072</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-36.74432</v>
+        <v>10.50624</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-36.71909</v>
+        <v>12.201848</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-36.82062</v>
+        <v>10.502542</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-36.76636</v>
+        <v>9.573335</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-36.63005</v>
+        <v>10.67966</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-36.68771</v>
+        <v>10.593141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-36.70986</v>
+        <v>10.270138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-36.75428</v>
+        <v>11.066993</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-36.67182</v>
+        <v>10.73899</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-36.70641</v>
+        <v>10.10028</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-36.76511</v>
+        <v>12.148099</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-36.73839</v>
+        <v>10.355803</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-36.77879</v>
+        <v>9.740570999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-36.78006000000001</v>
+        <v>1.1886952</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-36.70661</v>
+        <v>9.951039</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-36.66285</v>
+        <v>10.879298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-36.70894</v>
+        <v>3.2489923</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-36.81051</v>
+        <v>11.65842</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-36.70201</v>
+        <v>10.109352</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-36.86584000000001</v>
+        <v>10.6211</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-36.64978</v>
+        <v>10.456</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-36.66806</v>
+        <v>11.034454</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-36.72712</v>
+        <v>10.181118</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-36.68972</v>
+        <v>9.740606</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-36.65107</v>
+        <v>9.5656</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-36.70012</v>
+        <v>8.920119</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-36.73876</v>
+        <v>9.28979</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-36.71806</v>
+        <v>10.446571</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-36.70156</v>
+        <v>10.50172</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-36.72002999999999</v>
+        <v>10.86325</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-36.68415</v>
+        <v>10.019946</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-36.71995</v>
+        <v>11.52034</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-36.74036</v>
+        <v>9.638259</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-36.62778</v>
+        <v>9.889718999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-36.97351</v>
+        <v>9.991923</v>
       </c>
     </row>
   </sheetData>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05658484</v>
+        <v>0.05534408</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.06019974</v>
+        <v>0.05901294999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0570473</v>
+        <v>0.0582197</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.06070981</v>
+        <v>0.05988447</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.05480028</v>
+        <v>0.05417739000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.0571077</v>
+        <v>0.05703964</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.06015225</v>
+        <v>0.05910923999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.06254181</v>
+        <v>0.06134019</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.08042861</v>
+        <v>0.07981861</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.05740345</v>
+        <v>0.05644905</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.06162195</v>
+        <v>0.06052422</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.06443103</v>
+        <v>0.06266486</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.06008483</v>
+        <v>0.05867246</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.0633774</v>
+        <v>0.06236629</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.0609561</v>
+        <v>0.05887614</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.05772959</v>
+        <v>0.05515892</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.06242038</v>
+        <v>0.05963826</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.05659709</v>
+        <v>0.05525666</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.06898815999999999</v>
+        <v>0.06745414</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.06795862</v>
+        <v>0.06708894000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.06237214</v>
+        <v>0.06222347</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.05765362</v>
+        <v>0.05634871</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.06968683000000001</v>
+        <v>0.06813851</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.06938495</v>
+        <v>0.06885516999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.06796966</v>
+        <v>0.0660776</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.06864779</v>
+        <v>0.06761805</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.05676714000000001</v>
+        <v>0.05601107</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.05604050000000001</v>
+        <v>0.05611720999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.05421748</v>
+        <v>0.05297681000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.06002895</v>
+        <v>0.05808408</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.07817982999999999</v>
+        <v>0.07680975</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.06383667</v>
+        <v>0.06223489</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.06126054</v>
+        <v>0.06039555</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.05704087</v>
+        <v>0.05609287</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.05420298</v>
+        <v>0.05326101</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1220053</v>
+        <v>0.122796</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1167463</v>
+        <v>0.1171805</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1154916</v>
+        <v>0.1207823</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1303567</v>
+        <v>0.1312345</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1114872</v>
+        <v>0.1150127</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1141208</v>
+        <v>0.1170349</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1206485</v>
+        <v>0.120782</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1251848</v>
+        <v>0.1278843</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.176376</v>
+        <v>0.1767913</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.1189657</v>
+        <v>0.1201884</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1233508</v>
+        <v>0.1235801</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.1340082</v>
+        <v>0.1347104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.1166669</v>
+        <v>0.1165057</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.1231265</v>
+        <v>0.1219653</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.1286195</v>
+        <v>0.1279838</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.1160238</v>
+        <v>0.1141136</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.1180056</v>
+        <v>0.1172845</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.1153214</v>
+        <v>0.1179853</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1475534</v>
+        <v>0.1479136</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.1452711</v>
+        <v>0.1495966</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.1181862</v>
+        <v>0.1198539</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.1188126</v>
+        <v>0.1154952</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.1483226</v>
+        <v>0.1497647</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.1493719</v>
+        <v>0.1509127</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.1441694</v>
+        <v>0.1437957</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.1442822</v>
+        <v>0.1443653</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.1219086</v>
+        <v>0.1223548</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.1101281</v>
+        <v>0.1106081</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.1084707</v>
+        <v>0.1094684</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.1149013</v>
+        <v>0.1160688</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.1647979</v>
+        <v>0.1649035</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.1380047</v>
+        <v>0.1368415</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.1305821</v>
+        <v>0.1307262</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.1154477</v>
+        <v>0.1178496</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.1057633</v>
+        <v>0.1079893</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2427402</v>
+        <v>0.2420358</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2379677</v>
+        <v>0.2426295</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2374331</v>
+        <v>0.2481557</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2497876</v>
+        <v>0.2502388</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2433619</v>
+        <v>0.2485867</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.2398447</v>
+        <v>0.2431772</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2466708</v>
+        <v>0.2480081</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.2468173</v>
+        <v>0.2472889</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.2721153</v>
+        <v>0.2718666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2421431</v>
+        <v>0.2446985</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.2434852</v>
+        <v>0.2455202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.2514128</v>
+        <v>0.2515516</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.2390928</v>
+        <v>0.2379631</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.2445682</v>
+        <v>0.2416988</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.2510528</v>
+        <v>0.2475737</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.2459515</v>
+        <v>0.2411791</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.2330147</v>
+        <v>0.2394243</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.2428564</v>
+        <v>0.2485125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.2568613</v>
+        <v>0.2545059</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.2566858</v>
+        <v>0.2688339</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.2382104</v>
+        <v>0.2398318</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.2469564</v>
+        <v>0.2401798</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.2638635</v>
+        <v>0.263579</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.2511017</v>
+        <v>0.2542615</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.2552062</v>
+        <v>0.255868</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.2580872</v>
+        <v>0.2564862</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.2490246</v>
+        <v>0.2473814</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.2348899</v>
+        <v>0.2339116</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.236996</v>
+        <v>0.2389633</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.2396438</v>
+        <v>0.2416342</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.2638371</v>
+        <v>0.2617631</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.2526195</v>
+        <v>0.2503293</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.2488625</v>
+        <v>0.2479128</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.2427133</v>
+        <v>0.2492665</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.2337361</v>
+        <v>0.2416487</v>
       </c>
     </row>
   </sheetData>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5013585</v>
+        <v>0.5034921999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4993558</v>
+        <v>0.5011994000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4942704</v>
+        <v>0.5109397</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5132635</v>
+        <v>0.5133648</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5026425</v>
+        <v>0.5121881</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4956637</v>
+        <v>0.503871</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5075511</v>
+        <v>0.5072805</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.5075522</v>
+        <v>0.5118431</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5465241</v>
+        <v>0.5420596</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5011236</v>
+        <v>0.5065769999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.5039455</v>
+        <v>0.5069948</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.515259</v>
+        <v>0.5157016999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.4938148</v>
+        <v>0.4959939</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.5019785</v>
+        <v>0.4965895</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.5142066</v>
+        <v>0.5106898</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3252,7 +3252,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.5081558</v>
+        <v>0.4996942000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.4889283</v>
+        <v>0.5017317</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.5025643</v>
+        <v>0.5139459</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.5224040999999999</v>
+        <v>0.5214528</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3284,7 +3284,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.5197216</v>
+        <v>0.5398965999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.4941746</v>
+        <v>0.4956327</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.5084240999999999</v>
+        <v>0.4938235</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.5270405</v>
+        <v>0.5298877</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.5167201</v>
+        <v>0.5195733</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.5220494999999999</v>
+        <v>0.521917</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.5265728000000001</v>
+        <v>0.5211587</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.5075286999999999</v>
+        <v>0.5080263</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3348,7 +3348,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.4910081</v>
+        <v>0.4889579000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.4960694</v>
+        <v>0.4980455</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3364,7 +3364,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.4991868</v>
+        <v>0.5063252</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.5314539</v>
+        <v>0.5284815</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.5170968</v>
+        <v>0.5121027</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.5129831</v>
+        <v>0.5052772</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.5024946</v>
+        <v>0.5127115</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3404,7 +3404,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.4824391</v>
+        <v>0.4962308999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3433,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0149201</v>
+        <v>1.0181806</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0248317</v>
+        <v>1.023242</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.0093873</v>
+        <v>1.041023</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3457,7 +3457,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.030968</v>
+        <v>1.030408</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3465,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.02229</v>
+        <v>1.042346</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3473,7 +3473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.0099142</v>
+        <v>1.024334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3481,7 +3481,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.023894</v>
+        <v>1.026307</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3489,7 +3489,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.030143</v>
+        <v>1.042954</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.064466</v>
+        <v>1.056511</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3505,7 +3505,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.0185528</v>
+        <v>1.029381</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.028666</v>
+        <v>1.0338842</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3521,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.0294674</v>
+        <v>1.033038</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.0132784</v>
+        <v>1.0173093</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.0180182</v>
+        <v>1.0085435</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.037397</v>
+        <v>1.0287751</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.036849</v>
+        <v>1.022857</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3561,7 +3561,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.013554</v>
+        <v>1.040241</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3569,7 +3569,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.0196992</v>
+        <v>1.042442</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3577,7 +3577,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.044728</v>
+        <v>1.041749</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3585,7 +3585,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.0280368</v>
+        <v>1.0444882</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3593,7 +3593,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.0191946</v>
+        <v>1.021497</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3601,7 +3601,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.039075</v>
+        <v>1.0103008</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3609,7 +3609,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.028193</v>
+        <v>1.037491</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3617,7 +3617,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.027788</v>
+        <v>1.032425</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3625,7 +3625,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.044226</v>
+        <v>1.041656</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3633,7 +3633,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.047506</v>
+        <v>1.038676</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3641,7 +3641,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.024165</v>
+        <v>1.022149</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3649,7 +3649,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.0155935</v>
+        <v>1.0141806</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3657,7 +3657,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.0222434</v>
+        <v>1.024364</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3665,7 +3665,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.023134</v>
+        <v>1.040923</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3673,7 +3673,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.045984</v>
+        <v>1.038941</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3681,7 +3681,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.037246</v>
+        <v>1.027354</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3689,7 +3689,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.0313599</v>
+        <v>1.0193647</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3697,7 +3697,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.0191779</v>
+        <v>1.042193</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3705,7 +3705,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.9783546</v>
+        <v>1.0064104</v>
       </c>
     </row>
   </sheetData>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.970859000000001</v>
+        <v>-38.47714</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.101399</v>
+        <v>-38.4562</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10.039948</v>
+        <v>-38.43928</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.001672</v>
+        <v>-38.4477</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10.0091</v>
+        <v>-38.44546</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10.094055</v>
+        <v>-38.45185</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10.141462</v>
+        <v>-38.47898</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10.021815</v>
+        <v>-38.48612</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9.920196000000001</v>
+        <v>-38.46263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10.037926</v>
+        <v>-38.47835</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10.088795</v>
+        <v>-38.36218</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10.066153</v>
+        <v>-38.44794</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9.972080999999999</v>
+        <v>-38.46936</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10.022586</v>
+        <v>-38.44791</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.017343</v>
+        <v>-38.48401</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10.084331</v>
+        <v>-38.44054</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10.090069</v>
+        <v>-38.49094</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>10.005971</v>
+        <v>-38.46545</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>10.02414</v>
+        <v>-38.44368</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10.0993</v>
+        <v>-38.5008</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>10.08971</v>
+        <v>-38.48486</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>10.056307</v>
+        <v>-38.47987</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9.996328</v>
+        <v>-38.4567</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10.004255</v>
+        <v>-38.44459</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>10.092718</v>
+        <v>-38.45855</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>10.074135</v>
+        <v>-38.40299</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>10.026307</v>
+        <v>-38.40344</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>10.025615</v>
+        <v>-38.49305</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>9.955444</v>
+        <v>-38.45165</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>10.063971</v>
+        <v>-38.52697999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>10.083243</v>
+        <v>-38.49254</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>10.006938</v>
+        <v>-38.47533</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>10.006949</v>
+        <v>-38.4816</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>9.939314</v>
+        <v>-38.34972</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>10.191685</v>
+        <v>-38.42208</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.075005</v>
+        <v>2.081896</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4043,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.09797</v>
+        <v>2.095938</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4051,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.062151</v>
+        <v>2.132475</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4059,7 +4059,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.108885</v>
+        <v>2.107253</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4067,7 +4067,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.094088</v>
+        <v>2.137847</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4075,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.065927</v>
+        <v>2.098002</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4083,7 +4083,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.093243</v>
+        <v>2.10005</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4091,7 +4091,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.101847</v>
+        <v>2.134093</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4099,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.179592</v>
+        <v>2.163591</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4107,7 +4107,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.08357</v>
+        <v>2.109016</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4115,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.104036</v>
+        <v>2.116513</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4123,7 +4123,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.105353</v>
+        <v>2.112732</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4131,7 +4131,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.073936</v>
+        <v>2.081956</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4139,7 +4139,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.081303</v>
+        <v>2.060809</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4147,7 +4147,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.123237</v>
+        <v>2.104968</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4155,7 +4155,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.12231</v>
+        <v>2.093851</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4163,7 +4163,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.073063</v>
+        <v>2.134711</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4171,7 +4171,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.085707</v>
+        <v>2.137294</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4179,7 +4179,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.137061</v>
+        <v>2.132627</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4187,7 +4187,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.096777</v>
+        <v>2.192281</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4195,7 +4195,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.087923</v>
+        <v>2.091561</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4203,7 +4203,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.129624</v>
+        <v>2.065826</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4211,7 +4211,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.102847</v>
+        <v>2.125413</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4219,7 +4219,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.102293</v>
+        <v>2.112165</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4227,7 +4227,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2.138282</v>
+        <v>2.133585</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4235,7 +4235,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2.142379</v>
+        <v>2.124674</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4243,7 +4243,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.094151</v>
+        <v>2.089414</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4251,7 +4251,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2.079502</v>
+        <v>2.076759</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4259,7 +4259,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2.093943</v>
+        <v>2.104985</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4267,7 +4267,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.094657</v>
+        <v>2.135848</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4275,7 +4275,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.139029</v>
+        <v>2.12564</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4283,7 +4283,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2.123189</v>
+        <v>2.10227</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4291,7 +4291,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2.108277</v>
+        <v>2.083028</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4299,7 +4299,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.085419</v>
+        <v>2.135751</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4307,7 +4307,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.99759</v>
+        <v>2.061982</v>
       </c>
     </row>
   </sheetData>
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.363663</v>
+        <v>3.36803</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.446525</v>
+        <v>3.434883</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.303355</v>
+        <v>3.57976</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.385983</v>
+        <v>3.392519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.420463</v>
+        <v>3.613564</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.358914</v>
+        <v>3.462538</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.386738</v>
+        <v>3.407933</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.384316</v>
+        <v>3.521494</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.613426</v>
+        <v>3.543618</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.398869</v>
+        <v>3.491247</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.429851</v>
+        <v>3.481009</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.400544</v>
+        <v>3.421802</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.36436</v>
+        <v>3.40231</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.35586</v>
+        <v>3.288842</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3.467572</v>
+        <v>3.409295</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.486653</v>
+        <v>3.418875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.417744</v>
+        <v>3.660917</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.350029</v>
+        <v>3.57863</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3.481605</v>
+        <v>3.468514</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.373863</v>
+        <v>3.776035</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3.494244</v>
+        <v>3.443566</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.558002</v>
+        <v>3.321429</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>3.413293</v>
+        <v>3.527141</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3.427916</v>
+        <v>3.411785</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3.546392</v>
+        <v>3.548374</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3.506734</v>
+        <v>3.459947000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3.401764</v>
+        <v>3.402042</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3.412153</v>
+        <v>3.40369</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3.458914</v>
+        <v>3.527919</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3.46983</v>
+        <v>3.604681999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3.516063</v>
+        <v>3.455323</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3.481701</v>
+        <v>3.392523</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3.440305</v>
+        <v>3.376789</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3.481287</v>
+        <v>3.619668</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3.16121</v>
+        <v>3.399846</v>
       </c>
     </row>
   </sheetData>
@@ -4637,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11.02895</v>
+        <v>11.24797</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.26885</v>
+        <v>11.4272</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10.79393</v>
+        <v>11.90395</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.95529</v>
+        <v>11.20891</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11.22464</v>
+        <v>12.06157</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11.05743</v>
+        <v>11.57405</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11.03481</v>
+        <v>11.31353</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11.0032</v>
+        <v>11.70726</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11.68276</v>
+        <v>11.69829</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11.144</v>
+        <v>11.67134</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11.15735</v>
+        <v>11.500738</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11.049225</v>
+        <v>11.32063</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11.05143</v>
+        <v>11.37368</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10.937184</v>
+        <v>10.90207</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>11.28056</v>
+        <v>11.29984</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11.32764</v>
+        <v>11.35539</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>11.29264</v>
+        <v>12.24525</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>10.91827</v>
+        <v>11.9051</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>11.2961</v>
+        <v>11.4752</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10.98041</v>
+        <v>12.43369</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>11.50547</v>
+        <v>11.48798</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>11.572924</v>
+        <v>11.04415</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>11.17165</v>
+        <v>11.74955</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>11.20431</v>
+        <v>11.29768</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>11.56147</v>
+        <v>11.89162</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>11.3643</v>
+        <v>11.45603</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>11.11641</v>
+        <v>11.34383</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>11.21084</v>
+        <v>11.37504</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>11.35109</v>
+        <v>11.8168</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>11.3934</v>
+        <v>12.02127</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>11.4413</v>
+        <v>11.45671</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>11.37985</v>
+        <v>11.26146</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>11.24207</v>
+        <v>11.2548</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>11.47917</v>
+        <v>12.03897</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>10.407986</v>
+        <v>11.47651</v>
       </c>
     </row>
   </sheetData>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.350638</v>
+        <v>-38.09951</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.3443829</v>
+        <v>-38.07778</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.3378609</v>
+        <v>-38.05916</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.3471788</v>
+        <v>-38.06846</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.3667125</v>
+        <v>-38.06687</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.3196939</v>
+        <v>-38.06823</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.346862</v>
+        <v>-38.09642</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.3615267</v>
+        <v>-38.10643</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.3497722</v>
+        <v>-38.08225</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.3571037</v>
+        <v>-38.09765</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.3548915</v>
+        <v>-37.98334</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.3585469</v>
+        <v>-38.0693</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.347492</v>
+        <v>-38.08977</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.3584061</v>
+        <v>-38.07064</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.352597</v>
+        <v>-38.1036</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.3613551</v>
+        <v>-38.06384</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.3472376</v>
+        <v>-38.11342</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.3577978</v>
+        <v>-38.08599</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.3482301</v>
+        <v>-38.06574999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.3304886</v>
+        <v>-38.1232</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.3686982</v>
+        <v>-38.10813</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.3554691</v>
+        <v>-38.10248</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.3487182</v>
+        <v>-38.07691</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.3494917</v>
+        <v>-38.06286</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.3384014</v>
+        <v>-38.07962999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.3380491</v>
+        <v>-38.02706</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.339707</v>
+        <v>-38.02323</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.351941</v>
+        <v>-38.11483</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.3667531</v>
+        <v>-38.07573</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.3547486</v>
+        <v>-38.1482</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.3605288</v>
+        <v>-38.11602</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.3650435</v>
+        <v>-38.09725</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.3511879</v>
+        <v>-38.10272</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.3957979</v>
+        <v>-37.97453</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.3402127</v>
+        <v>-38.04279</v>
       </c>
     </row>
   </sheetData>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.868956</v>
+        <v>-37.99625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.860325</v>
+        <v>-37.97665</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1.858583</v>
+        <v>-37.95871</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1.865217</v>
+        <v>-37.9677</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1.828869</v>
+        <v>-37.96415</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-2.017704</v>
+        <v>-37.96641</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1.827556</v>
+        <v>-37.99498</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1.814538</v>
+        <v>-38.00498</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1.671549</v>
+        <v>-37.98017</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1.907806</v>
+        <v>-37.99589</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.845549</v>
+        <v>-37.88084</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.842439</v>
+        <v>-37.96705</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1.93184</v>
+        <v>-37.98572</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-1.855407</v>
+        <v>-37.97041</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-1.865266</v>
+        <v>-38.00115</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-1.82184</v>
+        <v>-37.96447</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-1.875759</v>
+        <v>-38.01062</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1.908724</v>
+        <v>-37.98226</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-1.898275</v>
+        <v>-37.96641</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-1.709953</v>
+        <v>-38.01911</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-1.840067</v>
+        <v>-38.00527</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-1.798369</v>
+        <v>-37.99915</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-1.909311</v>
+        <v>-37.97552</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-1.90352</v>
+        <v>-37.95995</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-1.911815</v>
+        <v>-37.98016</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-1.900459</v>
+        <v>-37.92808</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-1.926799</v>
+        <v>-37.92427</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.853288</v>
+        <v>-38.01322</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.907775</v>
+        <v>-37.97707</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-1.832482</v>
+        <v>-38.05456</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-1.796818</v>
+        <v>-38.01315</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-1.867585</v>
+        <v>-37.99627</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-1.925939</v>
+        <v>-37.99935</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-1.841009</v>
+        <v>-37.87872</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-1.617995</v>
+        <v>-37.93889</v>
       </c>
     </row>
   </sheetData>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5540,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-6.243546</v>
+        <v>-38.02628</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5548,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-6.901104999999999</v>
+        <v>-38.0086</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5556,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-6.368221</v>
+        <v>-37.99495</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5564,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-6.717345</v>
+        <v>-38.00097</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5572,7 +5572,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-6.478714000000001</v>
+        <v>-37.99838</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5580,7 +5580,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-12.478218</v>
+        <v>-37.99936</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5588,7 +5588,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-6.022008</v>
+        <v>-38.02697</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5596,7 +5596,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-6.044362</v>
+        <v>-38.03547</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5604,7 +5604,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-3.623429</v>
+        <v>-38.0119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5612,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-6.602492</v>
+        <v>-38.02758</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5620,7 +5620,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-7.520258</v>
+        <v>-37.91581</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5628,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-6.371142000000001</v>
+        <v>-38.00219</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5636,7 +5636,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-6.45532</v>
+        <v>-38.01749</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5644,7 +5644,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-6.034899</v>
+        <v>-38.00196</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5652,7 +5652,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-6.727413</v>
+        <v>-38.03052</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5660,7 +5660,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-5.328685</v>
+        <v>-37.99591</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5668,7 +5668,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-6.261953</v>
+        <v>-38.04293</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5676,7 +5676,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-6.873193000000001</v>
+        <v>-38.01714</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5684,7 +5684,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-6.531681000000001</v>
+        <v>-37.99728</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5692,7 +5692,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-5.276868</v>
+        <v>-38.05234</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5700,7 +5700,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-6.57471</v>
+        <v>-38.03719</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5708,7 +5708,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-6.925065000000001</v>
+        <v>-38.03465</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5716,7 +5716,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6.865947</v>
+        <v>-38.00809</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5724,7 +5724,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-6.951935000000001</v>
+        <v>-37.99821</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5732,7 +5732,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-6.991589</v>
+        <v>-38.01091</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5740,7 +5740,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-6.571455</v>
+        <v>-37.96411</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5748,7 +5748,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-6.284386</v>
+        <v>-37.95718</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5756,7 +5756,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-6.411488</v>
+        <v>-38.05009</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5764,7 +5764,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-6.719297</v>
+        <v>-38.00843</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5772,7 +5772,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-6.515212</v>
+        <v>-38.07995</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5780,7 +5780,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-6.302743</v>
+        <v>-38.04573</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5788,7 +5788,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-6.5164</v>
+        <v>-38.02914</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5796,7 +5796,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-6.852343</v>
+        <v>-38.03263</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5804,7 +5804,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-6.829663999999999</v>
+        <v>-37.9123</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5812,7 +5812,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-4.872816</v>
+        <v>-37.97145</v>
       </c>
     </row>
   </sheetData>
@@ -5841,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-38.2853</v>
+        <v>-38.00949</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5849,7 +5849,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-38.24731</v>
+        <v>-37.98969</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5857,7 +5857,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-38.37908</v>
+        <v>-37.97362</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5865,7 +5865,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-38.32011</v>
+        <v>-37.98177</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5873,7 +5873,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-38.25978</v>
+        <v>-37.98016</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5881,7 +5881,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-38.31032</v>
+        <v>-37.97851</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5889,7 +5889,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-38.30827</v>
+        <v>-38.00691</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5897,7 +5897,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-38.34243</v>
+        <v>-38.01365</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5905,7 +5905,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-38.14556</v>
+        <v>-37.99022</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5913,7 +5913,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-38.27871</v>
+        <v>-38.00861</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5921,7 +5921,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-38.27254</v>
+        <v>-37.9038</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5929,7 +5929,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-38.3042</v>
+        <v>-37.98315</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5937,7 +5937,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-38.3161</v>
+        <v>-37.99818</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5945,7 +5945,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-38.33121</v>
+        <v>-37.98307</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5953,7 +5953,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-38.26009000000001</v>
+        <v>-38.01721999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5961,7 +5961,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-38.22173</v>
+        <v>-37.9746</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5969,7 +5969,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-38.25253</v>
+        <v>-38.0254</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5977,7 +5977,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-38.32577</v>
+        <v>-38.00216</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5985,7 +5985,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-38.27963</v>
+        <v>-37.98116</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5993,7 +5993,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-38.394</v>
+        <v>-38.03233</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6001,7 +6001,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-38.21271</v>
+        <v>-38.01747</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6009,7 +6009,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-38.22346</v>
+        <v>-38.01264</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6017,7 +6017,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-38.27882</v>
+        <v>-37.99203</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6025,7 +6025,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-38.24984</v>
+        <v>-37.97953</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6033,7 +6033,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-38.23123</v>
+        <v>-37.99156</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6041,7 +6041,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-38.26897</v>
+        <v>-37.9403</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6049,7 +6049,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-38.28821000000001</v>
+        <v>-37.93897</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6057,7 +6057,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-38.28181</v>
+        <v>-38.03024</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6065,7 +6065,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-38.25392</v>
+        <v>-37.9879</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6073,7 +6073,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-38.25849</v>
+        <v>-38.06124</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6081,7 +6081,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-38.24009</v>
+        <v>-38.02794</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6089,7 +6089,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-38.26433</v>
+        <v>-38.00834</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6097,7 +6097,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-38.29331000000001</v>
+        <v>-38.01211</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6105,7 +6105,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-38.20464</v>
+        <v>-37.89561999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6113,7 +6113,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-38.54627</v>
+        <v>-37.95379000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-37.8818</v>
+        <v>-38.02015</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-37.83538</v>
+        <v>-37.9983</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-37.97017</v>
+        <v>-37.98029</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-37.91388</v>
+        <v>-37.98808</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-37.8537</v>
+        <v>-37.98745</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-37.89704</v>
+        <v>-37.98709</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-37.8932</v>
+        <v>-38.01944</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-37.93724</v>
+        <v>-38.02541</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-37.74401</v>
+        <v>-37.99847</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-37.86812</v>
+        <v>-38.02001</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-37.86415</v>
+        <v>-37.90906</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6230,7 +6230,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-37.89409</v>
+        <v>-37.99275</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6238,7 +6238,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-37.91477</v>
+        <v>-38.00801</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6246,7 +6246,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-37.92342</v>
+        <v>-37.99323</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6254,7 +6254,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-37.85102999999999</v>
+        <v>-38.02947</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6262,7 +6262,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-37.80906</v>
+        <v>-37.98596999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6270,7 +6270,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-37.84101</v>
+        <v>-38.03097</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6278,7 +6278,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-37.91933</v>
+        <v>-38.01014</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6286,7 +6286,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-37.87231</v>
+        <v>-37.98949</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6294,7 +6294,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-37.98032</v>
+        <v>-38.04163</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6302,7 +6302,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-37.79968</v>
+        <v>-38.02973</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6310,7 +6310,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-37.81448</v>
+        <v>-38.02759</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6318,7 +6318,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-37.87107</v>
+        <v>-38.00153</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6326,7 +6326,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-37.84176</v>
+        <v>-37.98781</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6334,7 +6334,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-37.81868</v>
+        <v>-37.99991</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6342,7 +6342,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-37.85478999999999</v>
+        <v>-37.95036</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6350,7 +6350,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-37.88097</v>
+        <v>-37.94636</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6358,7 +6358,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-37.87406</v>
+        <v>-38.0432</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6366,7 +6366,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-37.85266</v>
+        <v>-37.99818</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6374,7 +6374,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-37.84884</v>
+        <v>-38.07211</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6382,7 +6382,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-37.82863</v>
+        <v>-38.04011</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6390,7 +6390,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-37.85708</v>
+        <v>-38.01885</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6398,7 +6398,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-37.8867</v>
+        <v>-38.02291</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6406,7 +6406,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-37.80133</v>
+        <v>-37.89776</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6414,7 +6414,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-38.12641</v>
+        <v>-37.96244</v>
       </c>
     </row>
   </sheetData>
@@ -6443,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-37.77753</v>
+        <v>-37.90149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6451,7 +6451,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-37.72919</v>
+        <v>-37.87549</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6459,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-37.86514</v>
+        <v>-37.85392</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6467,7 +6467,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-37.80992999999999</v>
+        <v>-37.85973</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6475,7 +6475,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-37.75399</v>
+        <v>-37.85879</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6483,7 +6483,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-37.79269</v>
+        <v>-37.86796</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6491,7 +6491,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-37.78594</v>
+        <v>-37.89578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6499,7 +6499,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-37.8314</v>
+        <v>-37.89963</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6507,7 +6507,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-37.64412</v>
+        <v>-37.88356</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6515,7 +6515,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-37.76356</v>
+        <v>-37.88741</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6523,7 +6523,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-37.76017</v>
+        <v>-37.79054</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6531,7 +6531,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-37.78686</v>
+        <v>-37.86891</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6539,7 +6539,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-37.80756</v>
+        <v>-37.89096</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6547,7 +6547,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-37.81674</v>
+        <v>-37.87054</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6555,7 +6555,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-37.7459</v>
+        <v>-37.89807</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6563,7 +6563,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-37.70559</v>
+        <v>-37.85764</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6571,7 +6571,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-37.73539</v>
+        <v>-37.90186</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6579,7 +6579,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-37.81542</v>
+        <v>-37.88728</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6587,7 +6587,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-37.76565</v>
+        <v>-37.86466</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6595,7 +6595,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-37.874</v>
+        <v>-37.92098</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6603,7 +6603,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-37.69385</v>
+        <v>-37.90105</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6611,7 +6611,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-37.70842</v>
+        <v>-37.90314</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6619,7 +6619,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-37.76639</v>
+        <v>-37.87064</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6627,7 +6627,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-37.73915</v>
+        <v>-37.86869</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6635,7 +6635,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-37.71189</v>
+        <v>-37.87997</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6643,7 +6643,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-37.74988</v>
+        <v>-37.83056</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6651,7 +6651,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-37.77318</v>
+        <v>-37.82357</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6659,7 +6659,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-37.76988</v>
+        <v>-37.92885</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6667,7 +6667,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-37.74821</v>
+        <v>-37.87222</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6675,7 +6675,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-37.74371</v>
+        <v>-37.95486</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6683,7 +6683,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-37.72375</v>
+        <v>-37.91278</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6691,7 +6691,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-37.75471</v>
+        <v>-37.89423</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6699,7 +6699,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-37.78245</v>
+        <v>-37.89828</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6707,7 +6707,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-37.69886</v>
+        <v>-37.77986</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6715,7 +6715,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-38.01448000000001</v>
+        <v>-37.8338</v>
       </c>
     </row>
   </sheetData>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-37.81005</v>
+        <v>-37.20557</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-37.75944</v>
+        <v>-37.21120000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-37.89275</v>
+        <v>-37.17993</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-37.84032</v>
+        <v>-37.25118</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-37.78388</v>
+        <v>-37.20881</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-37.8152</v>
+        <v>-37.21372</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-37.81317</v>
+        <v>-37.25618</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-37.85878</v>
+        <v>-37.2678</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-37.67728</v>
+        <v>-37.23062</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-37.79203</v>
+        <v>-37.2408</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-37.78493</v>
+        <v>-37.26242</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-37.81522</v>
+        <v>-37.21259999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-37.83387</v>
+        <v>-37.21926000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-37.84524</v>
+        <v>-37.1943</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-37.77334</v>
+        <v>-37.219</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-37.73333</v>
+        <v>-37.18054</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6872,7 +6872,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-37.76318</v>
+        <v>-37.03879999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-37.84078</v>
+        <v>-37.2284</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-37.79178</v>
+        <v>-37.2173</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-37.89928</v>
+        <v>-37.28599</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-37.72309</v>
+        <v>-37.24922</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-37.73623</v>
+        <v>-37.21628</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6920,7 +6920,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-37.79308</v>
+        <v>-37.20763</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-37.76467</v>
+        <v>-37.2061</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-37.7397</v>
+        <v>-37.2114</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-37.77932</v>
+        <v>-37.12591</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-37.80385</v>
+        <v>-37.18272</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-37.7975</v>
+        <v>-37.28948</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-37.77671</v>
+        <v>-37.25366</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-37.77028</v>
+        <v>-37.40546</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-37.75279</v>
+        <v>-37.22648</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-37.78406</v>
+        <v>-37.23456</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-37.80995</v>
+        <v>-37.26336999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-37.72591</v>
+        <v>-37.11922</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-38.0409</v>
+        <v>-37.12523</v>
       </c>
     </row>
   </sheetData>
